--- a/Material Balance of A Reactive System Using Excel.xlsx
+++ b/Material Balance of A Reactive System Using Excel.xlsx
@@ -4374,141 +4374,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289035</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>486103</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="TextBox 39"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5787259" y="4335517"/>
-              <a:ext cx="2029810" cy="315311"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <a:fld id="{66E81A0C-F1DF-4F38-8986-7988BCB9B630}" type="mathplaceholder">
-                      <a:rPr lang="en-IN" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>Type equation here.</a:t>
-                    </a:fld>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-IN" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="TextBox 39"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5787259" y="4335517"/>
-              <a:ext cx="2029810" cy="315311"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>"Type equation here."</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-IN" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>340193</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5744,6 +5609,125 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4271596" y="4322885"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>375828</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8132454" y="624512"/>
+          <a:ext cx="1320139" cy="498231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Shriniwas Magar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>1MS21CH021</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6014,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Material Balance of A Reactive System Using Excel.xlsx
+++ b/Material Balance of A Reactive System Using Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1MS21CH021\PED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1MS21CH021\PED\Exp-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4385,8 +4385,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25049</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -5067,7 +5067,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -5999,7 +5999,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
